--- a/biology/Zoologie/Colaspis/Colaspis.xlsx
+++ b/biology/Zoologie/Colaspis/Colaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colaspis est un genre de coléoptères de la famille des Chrysomelidae et de la sous-famille des Eumolpinae.
 </t>
@@ -511,382 +523,384 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaspis abdominalis Lefèvre, 1877[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaspis abdominalis Lefèvre, 1877
 Colaspis aberrans (Bechyné, 1953)
-Colaspis achardi Bechyné, 1949[3]
-Colaspis adducta Clavareau, 1914[4]
-Colaspis adusta Lefèvre, 1885[5]
+Colaspis achardi Bechyné, 1949
+Colaspis adducta Clavareau, 1914
+Colaspis adusta Lefèvre, 1885
 Colaspis aemula Weise, 1921
 Colaspis aenea Fabricius, 1801
-Colaspis aeneicollis Bowditch, 1921[6]
+Colaspis aeneicollis Bowditch, 1921
 Colaspis aeneola Weise, 1921 g
-Colaspis aeraria Lefèvre, 1885[5]
-Colaspis aerea Lefèvre, 1884 g[7]
+Colaspis aeraria Lefèvre, 1885
+Colaspis aerea Lefèvre, 1884 g
 Colaspis aeruginosa (Germar, 1824)
 Colaspis affinis Weise, 1921
 Colaspis albicincta Erichson, 1847
 Colaspis alcyonea Suffrian, 1866
-Colaspis amabilis Jacoby, 1900[8]
-Colaspis amazonae Jacoby, 1900[8]
-Colaspis amplicollis Blake, 1971[9]
+Colaspis amabilis Jacoby, 1900
+Colaspis amazonae Jacoby, 1900
+Colaspis amplicollis Blake, 1971
 Colaspis anceps Lefèvre, 1878
-Colaspis apurensis (Bechyné, 1951)[10]
-Colaspis araguensis (Bechyné, 1958)[11]
-Colaspis arizonensis Schaeffer, 1933 i c g b[12]
+Colaspis apurensis (Bechyné, 1951)
+Colaspis araguensis (Bechyné, 1958)
+Colaspis arizonensis Schaeffer, 1933 i c g b
 Colaspis assimilis Klug, 1829
-Colaspis atrisuturalis Blake, 1976[13]
-Colaspis balyi Jacoby, 1881[14]
-Colaspis barberi Blake, 1967[15]
-Colaspis basipennis Bowditch, 1921[16]
-Colaspis batesi Jacoby, 1900[8]
-Colaspis belti Jacoby, 1881[14]
+Colaspis atrisuturalis Blake, 1976
+Colaspis balyi Jacoby, 1881
+Colaspis barberi Blake, 1967
+Colaspis basipennis Bowditch, 1921
+Colaspis batesi Jacoby, 1900
+Colaspis belti Jacoby, 1881
 Colaspis bicolor Germar, 1824
-Colaspis bidenticollis Bowditch, 1921[17]
-Colaspis bifasciata Jacoby, 1881[14]
-Colaspis blakeae Ostmark, 1975[18]
+Colaspis bidenticollis Bowditch, 1921
+Colaspis bifasciata Jacoby, 1881
+Colaspis blakeae Ostmark, 1975
 Colaspis bohumilae (Bechyné, 1950)
-Colaspis boliviana Bowditch, 1921[6]
-Colaspis braxatibiae Blake, 1978[19]
-Colaspis bridarollii Bechyné, 1949[3]
-Colaspis brownsvillensis Blake, 1975 i c g b[20]
+Colaspis boliviana Bowditch, 1921
+Colaspis braxatibiae Blake, 1978
+Colaspis bridarollii Bechyné, 1949
+Colaspis brownsvillensis Blake, 1975 i c g b
 Colaspis brunnea (Fabricius, 1798) i c g b
-Colaspis brunneipennis Bowditch, 1921[16]
+Colaspis brunneipennis Bowditch, 1921
 Colaspis buckleyi (Bechyné, 1953)
-Colaspis bifasciata Jacoby, 1880[14]
-Colaspis cacaoi Blake, 1973[21]
+Colaspis bifasciata Jacoby, 1880
+Colaspis cacaoi Blake, 1973
 Colaspis calcarifera (Bechyné, 1953)
-Colaspis caligula Agrain, Cabrera, Holgado &amp; Vicchi, 2016[22]
-Colaspis callichloris Lefèvre, 1878[23]
-Colaspis carolinensis Blake, 1974 i c g[24]
-Colaspis cartwrighti Blake, 1977[25]
+Colaspis caligula Agrain, Cabrera, Holgado &amp; Vicchi, 2016
+Colaspis callichloris Lefèvre, 1878
+Colaspis carolinensis Blake, 1974 i c g
+Colaspis cartwrighti Blake, 1977
 Colaspis castanea Boheman, 1858
-Colaspis chalcites Lefèvre, 1884[7]
-Colaspis championi Jacoby, 1881 i c g[14]
-Colaspis chapalensis Blake, 1976[13]
+Colaspis chalcites Lefèvre, 1884
+Colaspis championi Jacoby, 1881 i c g
+Colaspis chapalensis Blake, 1976
 Colaspis chapuisi Jacoby, 1884
-Colaspis chevlorati Lefèvre, 1891[26]
-Colaspis chlorana Lefèvre, 1891[26]
+Colaspis chevlorati Lefèvre, 1891
+Colaspis chlorana Lefèvre, 1891
 Colaspis chlorites Erichson, 1847
-Colaspis chloropsis Blake, 1976[13]
-Colaspis cinctella Lefèvre, 1884[27]
+Colaspis chloropsis Blake, 1976
+Colaspis cinctella Lefèvre, 1884
 Colaspis coelestina Erichson, 1847
-Colaspis columbica Jacoby, 1900[8]
-Colaspis concolor Bowditch, 1921 g[28]
+Colaspis columbica Jacoby, 1900
+Colaspis concolor Bowditch, 1921 g
 Colaspis concoloripes (Bechyné, 1950)
 Colaspis coneja Kolbe, 1901
 Colaspis confusa Bowditch, 1921
-Colaspis corrugata Lefèvre, 1885[5]
-Colaspis corumbensis Blake, 1978[19]
-Colaspis costipennis Crotch, 1873 i c g b[29]
+Colaspis corrugata Lefèvre, 1885
+Colaspis corumbensis Blake, 1978
+Colaspis costipennis Crotch, 1873 i c g b
 Colaspis cribellata Lefèvre, 1888
-Colaspis cribricollis Lefèvre, 1884[27]
-Colaspis crinicornis Schaeffer, 1933 i c g b[12]
-Colaspis cruriflava Blake, 1977 i c g b[30]
-Colaspis cubensis Blake, 1967[15]
-Colaspis darlingtoni Blake, 1967[15]
-Colaspis dejeani Lefèvre, 1884 g[7]
+Colaspis cribricollis Lefèvre, 1884
+Colaspis crinicornis Schaeffer, 1933 i c g b
+Colaspis cruriflava Blake, 1977 i c g b
+Colaspis cubensis Blake, 1967
+Colaspis darlingtoni Blake, 1967
+Colaspis dejeani Lefèvre, 1884 g
 Colaspis deleta Suffrian, 1867
-Colaspis delphina (Bechyné, 1951)[10]
+Colaspis delphina (Bechyné, 1951)
 Colaspis demersa (Bechyné, 1950)
-Colaspis dentifera (Bechyné, 1951)[10],[31]
-Colaspis despecta Lefèvre, 1884[27]
-Colaspis dentipyga (Bechyné, 1958)[11]
-Colaspis diduma Blake, 1975[20]
-Colaspis dilatipes Bowditch, 1921[28]
-Colaspis dionysea Bechyné, 1949[3]
+Colaspis dentifera (Bechyné, 1951),
+Colaspis despecta Lefèvre, 1884
+Colaspis dentipyga (Bechyné, 1958)
+Colaspis diduma Blake, 1975
+Colaspis dilatipes Bowditch, 1921
+Colaspis dionysea Bechyné, 1949
 Colaspis discolor Weise, 1921
-Colaspis dispar Bowditch, 1921[16]
+Colaspis dispar Bowditch, 1921
 Colaspis diversa Lefèvre, 1878
-Colaspis dugesi Lefèvre, 1885[5]
-Colaspis duplicata Lefèvre, 1877[2]
-Colaspis ekraspedona Blake, 1978[19]
-Colaspis elegans Jacoby, 1900[8]
-Colaspis exarata Lefèvre, 1884[27]
-Colaspis farri Blake, 1967[15]
+Colaspis dugesi Lefèvre, 1885
+Colaspis duplicata Lefèvre, 1877
+Colaspis ekraspedona Blake, 1978
+Colaspis elegans Jacoby, 1900
+Colaspis exarata Lefèvre, 1884
+Colaspis farri Blake, 1967
 Colaspis favosa Say, 1824 i c g b
 Colaspis femoralis Olivier, 1808
 Colaspis fervida (Suffrian, 1866)
-Colaspis flavantenna Blake, 1978[19]
+Colaspis flavantenna Blake, 1978
 Colaspis flavipes Olivier, 1808
-Colaspis flavocostata Schaeffer, 1933 i c g b[12]
-Colaspis floridana Schaeffer, 1933 i c g[12]
+Colaspis flavocostata Schaeffer, 1933 i c g b
+Colaspis floridana Schaeffer, 1933 i c g
 Colaspis foveicollis Jacoby, 1880
-Colaspis foveolata Lefèvre, 1884[32]
+Colaspis foveolata Lefèvre, 1884
 Colaspis freyi (Bechyné, 1950)
-Colaspis fulva Blake, 1976[13]
+Colaspis fulva Blake, 1976
 Colaspis fulvilabris Jacoby, 1880
-Colaspis fulvimana Lefèvre, 1877[2]
-Colaspis fulvotestacea Lefèvre, 1878[23]
-Colaspis fuscipes Bowditch, 1921[17]
-Colaspis gemellata Lefèvre, 1885[5]
+Colaspis fulvimana Lefèvre, 1877
+Colaspis fulvotestacea Lefèvre, 1878
+Colaspis fuscipes Bowditch, 1921
+Colaspis gemellata Lefèvre, 1885
 Colaspis gemmingeri Harold, 1874
 Colaspis gemmula Erichson, 1847
-Colaspis geniculata Lefèvre, 1891[33]
+Colaspis geniculata Lefèvre, 1891
 Colaspis gestroi Jacoby, 1899
-Colaspis goyazenis Bowditch, 1921[28]
-Colaspis grandicollis Blake, 1976[13]
-Colaspis guatemalensis Blake, 1975[20]
+Colaspis goyazenis Bowditch, 1921
+Colaspis grandicollis Blake, 1976
+Colaspis guatemalensis Blake, 1975
 Colaspis gwendolina (Bechyné, 1953)
-Colaspis hesperia Blake, 1974 i c g b[24]
-Colaspis heteroclita Jacoby, 1900[8]
-Colaspis hirticornis (Bechyné, 1955)[34]
-Colaspis homoia Blake, 1976[13]
+Colaspis hesperia Blake, 1974 i c g b
+Colaspis heteroclita Jacoby, 1900
+Colaspis hirticornis (Bechyné, 1955)
+Colaspis homoia Blake, 1976
 Colaspis humeralis Latreille, 1833
-Colaspis hypochlora Lefèvre, 1878[23]
-Colaspis hypoxantha Lefèvre, 1878[23]
-Colaspis impressa Lefèvre, 1877[2]
-Colaspis impressipennis Bowditch, 1921[6]
-Colaspis inconspicua Jacoby, 1890[35]
+Colaspis hypochlora Lefèvre, 1878
+Colaspis hypoxantha Lefèvre, 1878
+Colaspis impressa Lefèvre, 1877
+Colaspis impressipennis Bowditch, 1921
+Colaspis inconspicua Jacoby, 1890
 Colaspis inquinata Lefèvre, 1878
-Colaspis interstitalis Lefèvre, 1877[2]
+Colaspis interstitalis Lefèvre, 1877
 Colaspis intricata Lefèvre, 1888
-Colaspis jalapae (Bechyné, 1950)[36]
-Colaspis jansoni Jacoby, 1881[14]
-Colaspis jannsensi (Bechyné, 1950)[37]
-Colaspis jocosa Bowditch, 1921[6]
-Colaspis joliveti (Bechyné, 1950)[37]
-Colaspis juxaoculus Blake, 1978[19]
+Colaspis jalapae (Bechyné, 1950)
+Colaspis jansoni Jacoby, 1881
+Colaspis jannsensi (Bechyné, 1950)
+Colaspis jocosa Bowditch, 1921
+Colaspis joliveti (Bechyné, 1950)
+Colaspis juxaoculus Blake, 1978
 Colaspis kaszabi (Bechyné, 1953)
-Colaspis keyensis Blake, 1974 i c g[24]
-Colaspis kirra Blake, 1976[13]
-Colaspis klagii Bowditch, 1921[16]
+Colaspis keyensis Blake, 1974 i c g
+Colaspis kirra Blake, 1976
+Colaspis klagii Bowditch, 1921
 Colaspis labilis (Bechyné, 1953)
-Colaspis lampomela Blake, 1978[19]
-Colaspis laplatensis Bechyné, 1949[3]
-Colaspis lata Schaeffer, 1933 i c g[12]
+Colaspis lampomela Blake, 1978
+Colaspis laplatensis Bechyné, 1949
+Colaspis lata Schaeffer, 1933 i c g
 Colaspis lateralis Germar, 1824
-Colaspis lauei (Bechyné, 1950)[36]
-Colaspis lebasi Lefèvre, 1878[23]
+Colaspis lauei (Bechyné, 1950)
+Colaspis lebasi Lefèvre, 1878
 Colaspis lebasiformis (Bechyné, 1953)
-Colaspis lebasoides Bowditch, 1921[28]
+Colaspis lebasoides Bowditch, 1921
 Colaspis legionalis Bechyné, 1953 g
-Colaspis leiosomata Blake, 1973[21]
+Colaspis leiosomata Blake, 1973
 Colaspis leopoldina (Bechyné, 1953)
 Colaspis leucopus Harold, 1875
-Colaspis levicostata Blake, 1976[13]
+Colaspis levicostata Blake, 1976
 Colaspis libatrix (Bechyné, 1953)
-Colaspis longipennis Blake, 1976[13]
-Colaspis lophodes Blake, 1974[24]
-Colaspis louisianae Blake, 1974 i c g b[24]
-Colaspis luciae Blake, 1967[15]
-Colaspis luridula Lefèvre, 1878[23]
+Colaspis longipennis Blake, 1976
+Colaspis lophodes Blake, 1974
+Colaspis louisianae Blake, 1974 i c g b
+Colaspis luciae Blake, 1967
+Colaspis luridula Lefèvre, 1878
 Colaspis luteicornis (Fabricius, 1792)
 Colaspis lutescens Lefèvre, 1886
-Colaspis macroptera Blake, 1976[13]
+Colaspis macroptera Blake, 1976
 Colaspis maculipes Harold, 1875
 Colaspis maida (Bechyné, 1953)
-Colaspis manausa Blake, 1978[19]
+Colaspis manausa Blake, 1978
 Colaspis manea Erichson, 1847
-Colaspis mapiriensis (Bechyné, 1951)[10]
-Colaspis melaina Blake, 1974 i c g[24]
-Colaspis melancholica Jacoby, 1881[14]
+Colaspis mapiriensis (Bechyné, 1951)
+Colaspis melaina Blake, 1974 i c g
+Colaspis melancholica Jacoby, 1881
 Colaspis meriamae (Bechyné, 1951)
-Colaspis metallica Lefèvre, 1891 g[26]
-Colaspis mexicana Jacoby, 1881[14]
+Colaspis metallica Lefèvre, 1891 g
+Colaspis mexicana Jacoby, 1881
 Colaspis micans Weise, 1921
-Colaspis minuta Lefèvre, 1891[33]
-Colaspis missionea Bechyné, 1949[3]
-Colaspis mixticolor (Bechyné, 1951)[10]
+Colaspis minuta Lefèvre, 1891
+Colaspis missionea Bechyné, 1949
+Colaspis mixticolor (Bechyné, 1951)
 Colaspis monomorpha (Bechyné, 1950)
-Colaspis monrosi Bechyné, 1950[38]
+Colaspis monrosi Bechyné, 1950
 Colaspis montana Jacoby, 1891
-Colaspis musae Bechyné, 1950 g[39]
+Colaspis musae Bechyné, 1950 g
 Colaspis nigricornis Fabricius, 1801
 Colaspis nigripennis Jacoby, 1880
-Colaspis nigrocyanea Crotch, 1873 i c g b[29]
-Colaspis notaticornis Lefèvre, 1877[2]
-Colaspis obliqua Bowditch, 1921[17]
+Colaspis nigrocyanea Crotch, 1873 i c g b
+Colaspis notaticornis Lefèvre, 1877
+Colaspis obliqua Bowditch, 1921
 Colaspis obscura Fabricius, 1801
 Colaspis occidentalis (Linnaeus, 1758) g
-Colaspis orientalis Blake, 1967[15]
+Colaspis orientalis Blake, 1967
 Colaspis ornata Germar, 1824
-Colaspis ostmarki Blake, 1973[21]
-Colaspis otileensis Bowditch, 1921[16]
-Colaspis pallipes Lefèvre, 1877[2]
-Colaspis panamensis Blake, 1976[13]
-Colaspis pantaria (Bechyné, 1951)[10]
+Colaspis ostmarki Blake, 1973
+Colaspis otileensis Bowditch, 1921
+Colaspis pallipes Lefèvre, 1877
+Colaspis panamensis Blake, 1976
+Colaspis pantaria (Bechyné, 1951)
 Colaspis panzoensis (Bechyné, 1951)
-Colaspis paracostata Blake, 1978[19]
-Colaspis pectoralis Lefèvre, 1885[5]
+Colaspis paracostata Blake, 1978
+Colaspis pectoralis Lefèvre, 1885
 Colaspis perburbata Weise, 1921 g
 Colaspis perfidia (Bechyné, 1953)
-Colaspis perichrysea (Bechyné, 1951)[10]
+Colaspis perichrysea (Bechyné, 1951)
 Colaspis perturbata Weise, 1921
 Colaspis pini Barber, 1937 i c g b
-Colaspis planicostata Blake, 1974 i c g b[24]
+Colaspis planicostata Blake, 1974 i c g b
 Colaspis pleuralis Weise, 1921
-Colaspis plicatula Jacoby, 1882[14]
-Colaspis pohli (Bechyné, 1955)[34]
-Colaspis prasina Lefèvre, 1878[23]
-Colaspis propinqua Lefèvre, 1885[5]
-Colaspis prospectans (Bechyné, 1958)[11]
-Colaspis proteus Bechyné, 1949[3]
-Colaspis pseudofavosa E. Riley, 1978 i c g b[40]
+Colaspis plicatula Jacoby, 1882
+Colaspis pohli (Bechyné, 1955)
+Colaspis prasina Lefèvre, 1878
+Colaspis propinqua Lefèvre, 1885
+Colaspis prospectans (Bechyné, 1958)
+Colaspis proteus Bechyné, 1949
+Colaspis pseudofavosa E. Riley, 1978 i c g b
 Colaspis pseudogeminata (Bechyné, 1950)
-Colaspis pseudopruinosa Bechyné, 1949[3]
-Colaspis pulchella Lefèvre, 1877[2]
-Colaspis pumilio Lefèvre, 1884[27]
+Colaspis pseudopruinosa Bechyné, 1949
+Colaspis pulchella Lefèvre, 1877
+Colaspis pumilio Lefèvre, 1884
 Colaspis punctigera Weise, 1921
-Colaspis punctipennis Bowditch, 1921[16]
-Colaspis purpurala Blake, 1978[19]
-Colaspis purpurea Blake, 1971[9]
-Colaspis quadrifoveata Bowditch, 1921[16]
-Colaspis quattuordecimcostata Lefèvre, 1877[2]
-Colaspis recurva Blake, 1974 i c g b[24]
+Colaspis punctipennis Bowditch, 1921
+Colaspis purpurala Blake, 1978
+Colaspis purpurea Blake, 1971
+Colaspis quadrifoveata Bowditch, 1921
+Colaspis quattuordecimcostata Lefèvre, 1877
+Colaspis recurva Blake, 1974 i c g b
 Colaspis reflexomicans (Bechyné, 1953)
-Colaspis retracta (Bechyné, 1951)[10]
+Colaspis retracta (Bechyné, 1951)
 Colaspis romani Weise, 1921
-Colaspis rufipes Jacoby, 1900[8]
+Colaspis rufipes Jacoby, 1900
 Colaspis rugifera Weise, 1921
 Colaspis rugosa (Germar, 1824)
-Colaspis rugulosa Lefèvre, 1891[26]
+Colaspis rugulosa Lefèvre, 1891
 Colaspis rustica Boheman, 1859
-Colaspis sanguinea Blake, 1977 i c g[30]
-Colaspis sanjoseana (Bechyné, 1950)[36]
-Colaspis scintillifera Bechyné, 1949[3]
-Colaspis shuteae Blake, 1975[20]
-Colaspis similaris Blake, 1976[13]
-Colaspis similis Blake, 1977 i c g[30]
+Colaspis sanguinea Blake, 1977 i c g
+Colaspis sanjoseana (Bechyné, 1950)
+Colaspis scintillifera Bechyné, 1949
+Colaspis shuteae Blake, 1975
+Colaspis similaris Blake, 1976
+Colaspis similis Blake, 1977 i c g
 Colaspis simplex Weise, 1921
 Colaspis simplicipes (Bechyné, 1950)
 Colaspis smaragdula Olivier, 1808
 Colaspis soror Weise, 1921
-Colaspis spadix Blake, 1976[13]
-Colaspis speciosa Lefèvre, 1885[5]
-Colaspis spinigera Blake, 1975[20]
+Colaspis spadix Blake, 1976
+Colaspis speciosa Lefèvre, 1885
+Colaspis spinigera Blake, 1975
 Colaspis spuraticornis Erichson, 1847
-Colaspis stenopoda (Bechyné, 1951)[10]
-Colaspis stenorachis Blake, 1976[13]
-Colaspis strigata Lefèvre, 1878[23]
+Colaspis stenopoda (Bechyné, 1951)
+Colaspis stenorachis Blake, 1976
+Colaspis strigata Lefèvre, 1878
 Colaspis subacuta (Bechyné, 1950)
-Colaspis subaenea Jacoby, 1890[35]
-Colaspis subcostata Jacoby, 1881[14]
-Colaspis submersa Bechyné, 1949[3]
-Colaspis submetallica Jacoby, 1881[14]
+Colaspis subaenea Jacoby, 1890
+Colaspis subcostata Jacoby, 1881
+Colaspis submersa Bechyné, 1949
+Colaspis submetallica Jacoby, 1881
 Colaspis suffriani Weise, 1914
-Colaspis suggona Blake, 1977 i c g b[30]
+Colaspis suggona Blake, 1977 i c g b
 Colaspis suilla (Fabricius, 1801) i c g b
-Colaspis sulphuripes Lefèvre, 1877[2]
-Colaspis surrubrensis (Bechyné, 1950)[36]
-Colaspis suturalis Lefèvre, 1878[23]
-Colaspis tabacilla (Bechyné, 1951)[10]
-Colaspis taylori Bechyné, 1949[3]
-Colaspis tibialis Lefèvre, 1885[5]
-Colaspis townsendi Bowditch, 1921[28]
+Colaspis sulphuripes Lefèvre, 1877
+Colaspis surrubrensis (Bechyné, 1950)
+Colaspis suturalis Lefèvre, 1878
+Colaspis tabacilla (Bechyné, 1951)
+Colaspis taylori Bechyné, 1949
+Colaspis tibialis Lefèvre, 1885
+Colaspis townsendi Bowditch, 1921
 Colaspis trichopyga (Bechyné, 1953)
-Colaspis tucumanensis Bowditch, 1921[6]
-Colaspis uncotibialis Blake, 1976[13]
+Colaspis tucumanensis Bowditch, 1921
+Colaspis uncotibialis Blake, 1976
 Colaspis unicolor Olivier, 1808
-Colaspis varia Lefèvre, 1884[32]
-Colaspis variabilis Blake, 1976[13]
+Colaspis varia Lefèvre, 1884
+Colaspis variabilis Blake, 1976
 Colaspis vieta (Bechyné, 1950)
-Colaspis violetta Bechyné, 1949[3]
-Colaspis viridiceps Schaeffer, 1933 i c g b[12]
-Colaspis viridicollis Bowditch, 1921[6]
-Colaspis viridipunctata Jacoby, 1900[8]
+Colaspis violetta Bechyné, 1949
+Colaspis viridiceps Schaeffer, 1933 i c g b
+Colaspis viridicollis Bowditch, 1921
+Colaspis viridipunctata Jacoby, 1900
 Colaspis viridissima Lefèvre, 1877
-Colaspis viriditincta Schaeffer, 1919 i c g b[41]
+Colaspis viriditincta Schaeffer, 1919 i c g b
 Colaspis virulenta (Bechyné, 1953)
-Colaspis willincki (Bechyné, 1950)[38]
-Colaspis yucatana Jacoby, 1890[35]
-Colaspis yungarum (Bechyné, 1951)[10]
-Colaspis zanthophaia Blake, 1976[13]
+Colaspis willincki (Bechyné, 1950)
+Colaspis yucatana Jacoby, 1890
+Colaspis yungarum (Bechyné, 1951)
+Colaspis zanthophaia Blake, 1976
 Colaspis zarah (Bechyné, 1953)
 Colaspis zilchi (Bechyné, 1953)
-Colaspis zischkai (Bechyné, 1951)[10]
+Colaspis zischkai (Bechyné, 1951)
 Noms d'espèces de Colaspis utilisés par Bechyné (= Metaxyonycha ?):
 Colaspis acuminipennis Blanchard, 1843
 Colaspis angusta (Perty, 1832)
-Colaspis apochroma Bechyné, 1976 g[42]
-Colaspis argentinensis (Bechyné, 1949)[3]
+Colaspis apochroma Bechyné, 1976 g
+Colaspis argentinensis (Bechyné, 1949)
 Colaspis auripennis Germar, 1824
-Colaspis batesi (Baly, 1881)[43]
-Colaspis boggianii Bechyné, 1957[44]
-Colaspis bogotensis (Jacoby, 1900)[8]
-Colaspis bondari Bechyné &amp; Bechyné, 1968[45]
-Colaspis carminea Bechyné, 1955[34]
-Colaspis chlorospila (Marshall, 1864)[46]
-Colaspis chotana Bechyné, 1958[11]
+Colaspis batesi (Baly, 1881)
+Colaspis boggianii Bechyné, 1957
+Colaspis bogotensis (Jacoby, 1900)
+Colaspis bondari Bechyné &amp; Bechyné, 1968
+Colaspis carminea Bechyné, 1955
+Colaspis chlorospila (Marshall, 1864)
+Colaspis chotana Bechyné, 1958
 Colaspis comica Bechyné, 1953
-Colaspis concinna (Lefèvre, 1883)[47]
-Colaspis connexa (Marshall, 1864)[46]
-Colaspis corpulenta Bechyné, 1955[34]
-Colaspis costata (Lefèvre, 1877)[2]
-Colaspis crucifera (Marshall, 1864)[46]
+Colaspis concinna (Lefèvre, 1883)
+Colaspis connexa (Marshall, 1864)
+Colaspis corpulenta Bechyné, 1955
+Colaspis costata (Lefèvre, 1877)
+Colaspis crucifera (Marshall, 1864)
 Colaspis defficiens Bechyné, 1953
 Colaspis denieri Bechyné, 1953
-Colaspis diringshofeni Bechyné &amp; Bechyné, 1968[45]
-Colaspis distincta (Baly, 1881)[43]
-Colaspis dominga Bechyné, 1958[11]
-Colaspis elegans (Lefèvre, 1883)[47]
-Colaspis elytrospila Bechyné &amp; Bechyné, 1968[45]
-Colaspis excentritarsis Bechyné &amp; Bechyné, 1968[45]
-Colaspis fasciata (Lefèvre, 1875)[48]
-Colaspis flavofasciata Bowditch, 1921[28]
-Colaspis formosa (Lefèvre, 1883)[47]
+Colaspis diringshofeni Bechyné &amp; Bechyné, 1968
+Colaspis distincta (Baly, 1881)
+Colaspis dominga Bechyné, 1958
+Colaspis elegans (Lefèvre, 1883)
+Colaspis elytrospila Bechyné &amp; Bechyné, 1968
+Colaspis excentritarsis Bechyné &amp; Bechyné, 1968
+Colaspis fasciata (Lefèvre, 1875)
+Colaspis flavofasciata Bowditch, 1921
+Colaspis formosa (Lefèvre, 1883)
 Colaspis fuscovitatta Bechyné, 1953
-Colaspis godmani (Jacoby, 1881)[14]
-Colaspis gounelli (Lefèvre, 1891)[33]
+Colaspis godmani (Jacoby, 1881)
+Colaspis gounelli (Lefèvre, 1891)
 Colaspis granulata Germar, 1821
 Colaspis haroldi (Lefèvre, 1891)
-Colaspis hirsuta (Jacoby, 1890)[35]
-Colaspis humeralis (Marshall, 1864)[46]
-Colaspis humilis (Marshall, 1864)[46]
+Colaspis hirsuta (Jacoby, 1890)
+Colaspis humeralis (Marshall, 1864)
+Colaspis humilis (Marshall, 1864)
 Colaspis hybrida Lefèvre, 1878
-Colaspis jeanneli Bechyné, 1951[10]
-Colaspis jusepinensis Bechyné &amp; Bechyné, 1968[45]
-Colaspis lacerdae (Lefèvre, 1884)[7]
+Colaspis jeanneli Bechyné, 1951
+Colaspis jusepinensis Bechyné &amp; Bechyné, 1968
+Colaspis lacerdae (Lefèvre, 1884)
 Colaspis lefevrei Harold, 1875
-Colaspis lima Bechyné, 1955[34]
-Colaspis longicornis Bechyné, 1951[10]
-Colaspis martinezi Bechyné, 1951[10]
-Colaspis mattogrossoensis Scherer, 1964[49]
+Colaspis lima Bechyné, 1955
+Colaspis longicornis Bechyné, 1951
+Colaspis martinezi Bechyné, 1951
+Colaspis mattogrossoensis Scherer, 1964
 Colaspis melanocephala Bechyné, 1953
-Colaspis melanogastra Lefèvre, 1884[27]
-Colaspis mendesi (Bechyné, 1949)[3]
+Colaspis melanogastra Lefèvre, 1884
+Colaspis mendesi (Bechyné, 1949)
 Colaspis minarum Lefèvre, 1888
 Colaspis montesi Bechyné, 1953
-Colaspis nigritarsis (Lefèvre, 1875)[48]
-Colaspis octosignata (Baly, 1881)[43]
+Colaspis nigritarsis (Lefèvre, 1875)
+Colaspis octosignata (Baly, 1881)
 Colaspis pallidula Boheman, 1858
-Colaspis panamensis (Jacoby, 1890)[35]
-Colaspis parallela Bechyné, 1951[10]
-Colaspis piceola Bechyné &amp; Bechyné, 1968[45]
+Colaspis panamensis (Jacoby, 1890)
+Colaspis parallela Bechyné, 1951
+Colaspis piceola Bechyné &amp; Bechyné, 1968
 Colaspis plagiata (Lefèvre, 1891)
 Colaspis porcata Germar, 1824
-Colaspis pretiosa (Baly, 1881)[43]
-Colaspis problematica Bechyné, 1951[10]
-Colaspis pulchra Scherer, 1964[49]
+Colaspis pretiosa (Baly, 1881)
+Colaspis problematica Bechyné, 1951
+Colaspis pulchra Scherer, 1964
 Colaspis quadrimaculata Olivier, 1808
-Colaspis quadrinotata (Marshall, 1864)[46]
+Colaspis quadrinotata (Marshall, 1864)
 Colaspis radioni Bechyné, 1952
 Colaspis richteri Bechyné, 1953
-Colaspis rosiovittata (Bechyné, 1949)[3]
-Colaspis rugosa (Jacoby, 1900)[8]
+Colaspis rosiovittata (Bechyné, 1949)
+Colaspis rugosa (Jacoby, 1900)
 Colaspis sanguinea Lefèvre, 1878
-Colaspis schinicola Bechyné, 1958[11]
-Colaspis seabrai Bechyné &amp; Bechyné, 1968[45]
-Colaspis semiocelusa Bechyné, 1951[10]
-Colaspis sergipensis Bechyné &amp; Bechyné, 1968[45]
+Colaspis schinicola Bechyné, 1958
+Colaspis seabrai Bechyné &amp; Bechyné, 1968
+Colaspis semiocelusa Bechyné, 1951
+Colaspis sergipensis Bechyné &amp; Bechyné, 1968
 Colaspis signata Lefèvre, 1885
-Colaspis spinifera Bechyné, 1957[44]
-Colaspis tarsata (Baly, 1881)[43]
-Colaspis tejucana (Marshall, 1864)[46]
-Colaspis tenuenotata Bechyné, 1950[36]
+Colaspis spinifera Bechyné, 1957
+Colaspis tarsata (Baly, 1881)
+Colaspis tejucana (Marshall, 1864)
+Colaspis tenuenotata Bechyné, 1950
 Colaspis testacea Fabricius, 1801
-Colaspis tetrasticta (Marshall, 1864)[46]
+Colaspis tetrasticta (Marshall, 1864)
 Colaspis tricolor Perty, 1832
 Colaspis tridentata Jacoby, 1877
-Colaspis trigonomera Bechyné &amp; Bechyné, 1968[45]
+Colaspis trigonomera Bechyné &amp; Bechyné, 1968
 Colaspis validicornis Lefèvre, 1885
-Colaspis variolosa (Jacoby, 1890)[35]
-Colaspis vianai (Bechyné, 1949)[3]
+Colaspis variolosa (Jacoby, 1890)
+Colaspis vianai (Bechyné, 1949)
 Colaspis violena Bechyné, 1953
-Colaspis viridilimbata (Lefèvre, 1877)[2]
-Colaspis vittulosa Bechyné, 1951[10]
-Colaspis wayrauchi Bechyné, 1951[36]
+Colaspis viridilimbata (Lefèvre, 1877)
+Colaspis vittulosa Bechyné, 1951
+Colaspis wayrauchi Bechyné, 1951
 Espèces éteintes:
 †Colaspis aetatis Wickham, 1911
 †Colaspis diluvialis Wickham, 1914
